--- a/input_data/formers/formers_unsh.xlsx
+++ b/input_data/formers/formers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/formers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/formers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DCCE48-E722-964A-A964-D461CC233D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE6A68-1908-5B44-BD15-10ECDCA29807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Отбор:</t>
   </si>
@@ -89,12 +89,12 @@
     <t>33040 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1</t>
   </si>
   <si>
+    <t>33043 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1</t>
+  </si>
+  <si>
     <t>33038упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) V.1 / УПАК</t>
   </si>
   <si>
-    <t>33043 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1</t>
-  </si>
-  <si>
     <t>33039упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) V.1 / УПАК</t>
   </si>
   <si>
@@ -110,214 +110,334 @@
     <t>33043уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1 / УПАК</t>
   </si>
   <si>
+    <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
     <t>33042уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) V.1 / УПАК</t>
   </si>
   <si>
-    <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
     <t>33037П Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
+  </si>
+  <si>
     <t>33042П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33055 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) V.1</t>
+  </si>
+  <si>
+    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
+  </si>
+  <si>
+    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33036упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
+  </si>
+  <si>
+    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
+  </si>
+  <si>
+    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1</t>
+  </si>
+  <si>
+    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
+  </si>
+  <si>
+    <t>33080 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1</t>
+  </si>
+  <si>
+    <t>33056 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) V.1</t>
+  </si>
+  <si>
+    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33057 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1</t>
+  </si>
+  <si>
+    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
+  </si>
+  <si>
+    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
+  </si>
+  <si>
+    <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
+  </si>
+  <si>
+    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
+  </si>
+  <si>
+    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
+  </si>
+  <si>
     <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1 / УПАК</t>
   </si>
   <si>
+    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
+  </si>
+  <si>
+    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
+  </si>
+  <si>
+    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33032упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
+  </si>
+  <si>
+    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33034упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33053уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
+  </si>
+  <si>
+    <t>33121 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=3 H=5 (арт. HAB403050L) V.1</t>
+  </si>
+  <si>
+    <t>33246 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=6 (арт. HA6560) V.1</t>
+  </si>
+  <si>
+    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
+  </si>
+  <si>
+    <t>33096 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) V.1</t>
+  </si>
+  <si>
+    <t>33048 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) V.2</t>
+  </si>
+  <si>
+    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33084 Формирователь десны LM (копия оригинала) Ankylos C / X D=6 H=4.5 (арт. 3102 4016) V.1</t>
+  </si>
+  <si>
     <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / УПАК</t>
   </si>
   <si>
-    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
-  </si>
-  <si>
-    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
-  </si>
-  <si>
-    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) ПОЛИР. V.1.P</t>
+    <t>33105П Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=5.5 H=2 (арт. 24577) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33181 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=3.5 (арт. 024.2244) V.1</t>
+  </si>
+  <si>
+    <t>33291 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.7 H=6 (арт. 024.4236S) V.1</t>
+  </si>
+  <si>
+    <t>33247 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=7 (арт. HA6570) V.1</t>
+  </si>
+  <si>
+    <t>33102 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4 H=2 (арт. 24574) V.1</t>
+  </si>
+  <si>
+    <t>33174 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=3.5 (арт. 024.2224) V.1</t>
+  </si>
+  <si>
+    <t>33176 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=4 (арт. 024.4224) V.1</t>
+  </si>
+  <si>
+    <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
+  </si>
+  <si>
+    <t>33172 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=2 (арт. 024.2222) V.1</t>
+  </si>
+  <si>
+    <t>33237 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4 H=6 (арт. HA4060) V.1</t>
+  </si>
+  <si>
+    <t>33244 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=4 (арт. HA6540) V.1</t>
+  </si>
+  <si>
+    <t>33047 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=3 (арт. TSHA453M) V.1</t>
+  </si>
+  <si>
+    <t>33241 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=5.5 H=6 (арт. HA5560) V.1</t>
+  </si>
+  <si>
+    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
+  </si>
+  <si>
+    <t>33253 Формирователь десны LM (копия оригинала) Astra Tech 4.5/5.0 D=6.5 H=4 (арт. 24586) V.1</t>
+  </si>
+  <si>
+    <t>33104 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4.5 H=6 (арт. 24576) V.1</t>
+  </si>
+  <si>
+    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
+  </si>
+  <si>
+    <t>33013 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=5.5 H=5 (арт. 127) V.1</t>
+  </si>
+  <si>
+    <t>33248 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=7 (арт. AANHAF0507) V.1</t>
+  </si>
+  <si>
+    <t>33072 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=5.5 H=6 (арт. 24579) V.1</t>
+  </si>
+  <si>
+    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
+  </si>
+  <si>
+    <t>33208 Формирователь десны LM (копия оригинала) Astra Tech 4.5/5.0 D=5.5 H=6 (арт. 24584) V.1</t>
+  </si>
+  <si>
+    <t>33012 Формирователь десны LM (собств. разр.) Alpha Bio Internal D=5.5 H=4 V.1</t>
+  </si>
+  <si>
+    <t>33002 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=3.5 H=5 (арт. RS3030) V.1</t>
+  </si>
+  <si>
+    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1</t>
+  </si>
+  <si>
+    <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
+  </si>
+  <si>
+    <t>33122 Формирователь десны LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 H=3 (арт. CN-HS340) V.1</t>
+  </si>
+  <si>
+    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
+  </si>
+  <si>
+    <t>33005 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 H=5 (арт. RS3025) V.1</t>
+  </si>
+  <si>
+    <t>33032 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1</t>
+  </si>
+  <si>
+    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33125 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=2 (арт. CS-HS248) V.1</t>
+  </si>
+  <si>
+    <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
+  </si>
+  <si>
+    <t>33049уп Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
+  </si>
+  <si>
+    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
+  </si>
+  <si>
+    <t>33088уп Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33030упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=7 (арт. TSHA407M) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1</t>
+  </si>
+  <si>
+    <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
+  </si>
+  <si>
+    <t>33018 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=4 (арт. AANHAF0504) V.1</t>
+  </si>
+  <si>
+    <t>33188 Формирователь десны LM (копия оригинала) Ankylos C D=4.2 G/H=3 H=10.5 (арт. 3102 2514) V.1</t>
+  </si>
+  <si>
+    <t>33205уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=3 H=5 (арт. HAB653050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
+  </si>
+  <si>
+    <t>33192уп Формирователь десны LM (копия оригинала) Implantium D=4 G/H=4 H=7 (арт. HAB404070L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33016 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=3 (арт. AANHAF0403) V.1</t>
+  </si>
+  <si>
+    <t>33121уп Формирователь десны LM (копия оригинала) Implantium D=4 G/H=3 H=5 (арт. HAB403050L) V.1 / УПАК</t>
   </si>
   <si>
     <t>33193уп Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1 / УПАК</t>
   </si>
   <si>
-    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+    <t>33235уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1 / УПАК</t>
   </si>
   <si>
     <t>33101уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1 / УПАК</t>
   </si>
   <si>
-    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
-  </si>
-  <si>
-    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1</t>
+    <t>33056упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33118 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 H=6 (арт. RS3026) V.1</t>
+  </si>
+  <si>
+    <t>33190уп Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
+  </si>
+  <si>
+    <t>33058упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33204уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=2 (арт. HAB652020L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33055упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
   </si>
   <si>
     <t>33119уп Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33032упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33034упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
-  </si>
-  <si>
-    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
-  </si>
-  <si>
-    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
-  </si>
-  <si>
-    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
-  </si>
-  <si>
-    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
-  </si>
-  <si>
-    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
-  </si>
-  <si>
-    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
-  </si>
-  <si>
-    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
-  </si>
-  <si>
-    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
-  </si>
-  <si>
-    <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
-  </si>
-  <si>
-    <t>33096 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) V.1</t>
-  </si>
-  <si>
-    <t>33084 Формирователь десны LM (копия оригинала) Ankylos C / X D=6 H=4.5 (арт. 3102 4016) V.1</t>
-  </si>
-  <si>
-    <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
-  </si>
-  <si>
-    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
-  </si>
-  <si>
-    <t>33248 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=7 (арт. AANHAF0507) V.1</t>
-  </si>
-  <si>
-    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
-  </si>
-  <si>
-    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
-  </si>
-  <si>
-    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
-  </si>
-  <si>
-    <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
-  </si>
-  <si>
-    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
-  </si>
-  <si>
-    <t>33032 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1</t>
-  </si>
-  <si>
-    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1</t>
-  </si>
-  <si>
-    <t>33122 Формирователь десны LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 H=3 (арт. CN-HS340) V.1</t>
-  </si>
-  <si>
-    <t>33048 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) V.2</t>
-  </si>
-  <si>
-    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
-  </si>
-  <si>
-    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1</t>
-  </si>
-  <si>
-    <t>33125 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=2 (арт. CS-HS248) V.1</t>
-  </si>
-  <si>
-    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
-  </si>
-  <si>
-    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
-  </si>
-  <si>
-    <t>33016 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=3 (арт. AANHAF0403) V.1</t>
-  </si>
-  <si>
-    <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
-  </si>
-  <si>
-    <t>33238 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4.5 H=5 (арт. HA4550) V.1</t>
-  </si>
-  <si>
-    <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
-  </si>
-  <si>
-    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
-  </si>
-  <si>
-    <t>33118 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 H=6 (арт. RS3026) V.1</t>
-  </si>
-  <si>
-    <t>33104 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4.5 H=6 (арт. 24576) V.1</t>
-  </si>
-  <si>
-    <t>33018 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=4 (арт. AANHAF0504) V.1</t>
-  </si>
-  <si>
-    <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
   </si>
 </sst>
 </file>
@@ -804,7 +924,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,13 +997,13 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -893,13 +1013,13 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -909,15 +1029,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="20">
-        <v>3315</v>
+        <v>3679</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4">
-        <v>672</v>
+        <v>862</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="8">
-        <v>2643</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -991,7 +1111,7 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="6">
@@ -999,7 +1119,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1233,13 +1353,15 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6">
+        <v>70</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1249,13 +1371,13 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1265,13 +1387,13 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1393,13 +1515,13 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1409,13 +1531,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1425,13 +1547,13 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1441,13 +1563,13 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1457,13 +1579,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1473,13 +1595,13 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1585,13 +1707,15 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="E50" s="19"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="6">
+        <v>130</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1601,13 +1725,13 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1617,13 +1741,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1633,13 +1757,13 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1649,12 +1773,10 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="6">
-        <v>70</v>
-      </c>
+      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
         <v>13</v>
@@ -1667,13 +1789,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1683,13 +1805,13 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1715,12 +1837,10 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="E58" s="19"/>
-      <c r="F58" s="6">
-        <v>90</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
         <v>11</v>
@@ -1781,10 +1901,12 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="6">
+        <v>90</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
         <v>10</v>
@@ -1797,15 +1919,13 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="6">
-        <v>130</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1815,13 +1935,13 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1831,15 +1951,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="6">
-        <v>174</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1849,13 +1967,13 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1865,13 +1983,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1881,13 +1999,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1897,13 +2015,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1913,13 +2031,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1929,13 +2047,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1945,13 +2063,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1961,13 +2079,15 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="6">
+        <v>174</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1977,13 +2097,13 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1993,13 +2113,13 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2009,13 +2129,13 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2025,13 +2145,13 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2041,13 +2161,13 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2057,13 +2177,13 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2073,13 +2193,13 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2089,13 +2209,13 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2105,13 +2225,13 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2121,13 +2241,13 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2137,13 +2257,13 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2153,15 +2273,13 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="E85" s="19"/>
-      <c r="F85" s="6">
-        <v>150</v>
-      </c>
+      <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2171,13 +2289,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2187,15 +2305,15 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="6">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2205,13 +2323,13 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2221,13 +2339,13 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2237,13 +2355,13 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2253,13 +2371,13 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2269,13 +2387,13 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2285,13 +2403,13 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2301,43 +2419,769 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" s="19"/>
-      <c r="F94" s="6">
-        <v>4</v>
-      </c>
+      <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="19">
+        <v>4</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="19">
+        <v>4</v>
+      </c>
+      <c r="E96" s="19"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="19">
+        <v>4</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19">
+        <v>43</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="6">
+        <v>40</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="6">
         <v>3</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="21">
-        <v>3325</v>
-      </c>
-      <c r="E95" s="21"/>
-      <c r="F95" s="10">
-        <v>672</v>
-      </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="9">
-        <v>2653</v>
+    </row>
+    <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="19">
+        <v>3</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="19">
+        <v>3</v>
+      </c>
+      <c r="E100" s="19"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="19">
+        <v>3</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19">
+        <v>3</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="19">
+        <v>152</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="6">
+        <v>150</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="19">
+        <v>2</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="19">
+        <v>2</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="19">
+        <v>2</v>
+      </c>
+      <c r="E106" s="19"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="19">
+        <v>2</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="19">
+        <v>2</v>
+      </c>
+      <c r="E108" s="19"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="19">
+        <v>2</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19">
+        <v>6</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="6">
+        <v>4</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="19">
+        <v>2</v>
+      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="19">
+        <v>2</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="19">
+        <v>2</v>
+      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19">
+        <v>2</v>
+      </c>
+      <c r="E114" s="19"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="19">
+        <v>2</v>
+      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="19">
+        <v>1</v>
+      </c>
+      <c r="E116" s="19"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="19">
+        <v>1</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19">
+        <v>1</v>
+      </c>
+      <c r="E118" s="19"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="19">
+        <v>5</v>
+      </c>
+      <c r="E119" s="19"/>
+      <c r="F119" s="6">
+        <v>4</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="19">
+        <v>1</v>
+      </c>
+      <c r="E120" s="19"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="19">
+        <v>1</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19">
+        <v>1</v>
+      </c>
+      <c r="E122" s="19"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="19">
+        <v>1</v>
+      </c>
+      <c r="E123" s="19"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="19">
+        <v>1</v>
+      </c>
+      <c r="E124" s="19"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="19">
+        <v>1</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="19">
+        <v>1</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="19">
+        <v>1</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="19">
+        <v>1</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="19">
+        <v>1</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="19">
+        <v>1</v>
+      </c>
+      <c r="E130" s="19"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="19">
+        <v>1</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="19">
+        <v>1</v>
+      </c>
+      <c r="E132" s="19"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="19">
+        <v>1</v>
+      </c>
+      <c r="E133" s="19"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="19">
+        <v>1</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="21">
+        <v>3695</v>
+      </c>
+      <c r="E135" s="21"/>
+      <c r="F135" s="10">
+        <v>862</v>
+      </c>
+      <c r="G135" s="11"/>
+      <c r="H135" s="9">
+        <v>2833</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="265">
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="A94:C94"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="A95:C95"/>
     <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="A89:C89"/>

--- a/input_data/formers/formers_unsh.xlsx
+++ b/input_data/formers/formers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/formers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/formers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE6A68-1908-5B44-BD15-10ECDCA29807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203290E1-5100-554E-A9BD-968B3E6DEFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>Отбор:</t>
   </si>
@@ -89,12 +89,12 @@
     <t>33040 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1</t>
   </si>
   <si>
+    <t>33038упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>33043 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1</t>
   </si>
   <si>
-    <t>33038упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>33039упб Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) V.1 / УПАК</t>
   </si>
   <si>
@@ -119,325 +119,229 @@
     <t>33037П Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33042П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
+  </si>
+  <si>
+    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
+  </si>
+  <si>
+    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
+  </si>
+  <si>
+    <t>33027 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6 H=6 (арт. AANHAF0606) V.1</t>
+  </si>
+  <si>
+    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
+  </si>
+  <si>
+    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1</t>
+  </si>
+  <si>
+    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
+  </si>
+  <si>
+    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
+  </si>
+  <si>
+    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33021 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6 H=5 (арт. AANHAF0605) V.1</t>
+  </si>
+  <si>
+    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
+  </si>
+  <si>
+    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
+  </si>
+  <si>
+    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
+  </si>
+  <si>
+    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
+  </si>
+  <si>
+    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
+  </si>
+  <si>
+    <t>33032упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33089уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33051уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33054Пуп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33096уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1</t>
+  </si>
+  <si>
     <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
   </si>
   <si>
-    <t>33042П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33055 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) V.1</t>
-  </si>
-  <si>
-    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
-  </si>
-  <si>
-    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33036упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
-  </si>
-  <si>
-    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
-  </si>
-  <si>
-    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1</t>
-  </si>
-  <si>
-    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
+    <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
+  </si>
+  <si>
+    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
+  </si>
+  <si>
+    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
+  </si>
+  <si>
+    <t>33084 Формирователь десны LM (копия оригинала) Ankylos C / X D=6 H=4.5 (арт. 3102 4016) V.1</t>
+  </si>
+  <si>
+    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
+  </si>
+  <si>
+    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1</t>
+  </si>
+  <si>
+    <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
+  </si>
+  <si>
+    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / УПАК</t>
   </si>
   <si>
     <t>33080 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1</t>
   </si>
   <si>
-    <t>33056 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) V.1</t>
-  </si>
-  <si>
-    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33057 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1</t>
-  </si>
-  <si>
-    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
-  </si>
-  <si>
-    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
-  </si>
-  <si>
-    <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
+    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33248 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=7 (арт. AANHAF0507) V.1</t>
+  </si>
+  <si>
+    <t>33017 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=5 (арт. AANHAF0405) V.1</t>
+  </si>
+  <si>
+    <t>33205 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=3 H=5 (арт. HAB653050L) V.1</t>
+  </si>
+  <si>
+    <t>33026 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6.2 H=4 (арт. AANHAF0604) V.1</t>
+  </si>
+  <si>
+    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
   </si>
   <si>
     <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
   </si>
   <si>
-    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
-  </si>
-  <si>
-    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
-  </si>
-  <si>
-    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
-  </si>
-  <si>
-    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33032упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
-  </si>
-  <si>
-    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33034упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33053уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
-  </si>
-  <si>
-    <t>33121 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=3 H=5 (арт. HAB403050L) V.1</t>
-  </si>
-  <si>
-    <t>33246 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=6 (арт. HA6560) V.1</t>
-  </si>
-  <si>
-    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
-  </si>
-  <si>
-    <t>33096 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) V.1</t>
-  </si>
-  <si>
     <t>33048 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) V.2</t>
   </si>
   <si>
-    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33084 Формирователь десны LM (копия оригинала) Ankylos C / X D=6 H=4.5 (арт. 3102 4016) V.1</t>
-  </si>
-  <si>
-    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33105П Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=5.5 H=2 (арт. 24577) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33181 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=3.5 (арт. 024.2244) V.1</t>
+    <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
+  </si>
+  <si>
+    <t>33122 Формирователь десны LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 H=3 (арт. CN-HS340) V.1</t>
+  </si>
+  <si>
+    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33290 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.4 H=4 (арт. 024.4234S) V.1</t>
+  </si>
+  <si>
+    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
+  </si>
+  <si>
+    <t>33176уп Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=4 (арт. 024.4224) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
   </si>
   <si>
     <t>33291 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.7 H=6 (арт. 024.4236S) V.1</t>
   </si>
   <si>
-    <t>33247 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=7 (арт. HA6570) V.1</t>
-  </si>
-  <si>
-    <t>33102 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4 H=2 (арт. 24574) V.1</t>
-  </si>
-  <si>
-    <t>33174 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=3.5 (арт. 024.2224) V.1</t>
-  </si>
-  <si>
-    <t>33176 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=4 (арт. 024.4224) V.1</t>
-  </si>
-  <si>
-    <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
-  </si>
-  <si>
-    <t>33172 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=2 (арт. 024.2222) V.1</t>
-  </si>
-  <si>
-    <t>33237 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4 H=6 (арт. HA4060) V.1</t>
-  </si>
-  <si>
-    <t>33244 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=4 (арт. HA6540) V.1</t>
-  </si>
-  <si>
-    <t>33047 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=3 (арт. TSHA453M) V.1</t>
-  </si>
-  <si>
-    <t>33241 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=5.5 H=6 (арт. HA5560) V.1</t>
-  </si>
-  <si>
-    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
-  </si>
-  <si>
-    <t>33253 Формирователь десны LM (копия оригинала) Astra Tech 4.5/5.0 D=6.5 H=4 (арт. 24586) V.1</t>
-  </si>
-  <si>
-    <t>33104 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4.5 H=6 (арт. 24576) V.1</t>
-  </si>
-  <si>
-    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
-  </si>
-  <si>
-    <t>33013 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=5.5 H=5 (арт. 127) V.1</t>
-  </si>
-  <si>
-    <t>33248 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=7 (арт. AANHAF0507) V.1</t>
-  </si>
-  <si>
-    <t>33072 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=5.5 H=6 (арт. 24579) V.1</t>
-  </si>
-  <si>
     <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
   </si>
   <si>
-    <t>33208 Формирователь десны LM (копия оригинала) Astra Tech 4.5/5.0 D=5.5 H=6 (арт. 24584) V.1</t>
-  </si>
-  <si>
-    <t>33012 Формирователь десны LM (собств. разр.) Alpha Bio Internal D=5.5 H=4 V.1</t>
-  </si>
-  <si>
-    <t>33002 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=3.5 H=5 (арт. RS3030) V.1</t>
-  </si>
-  <si>
-    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1</t>
-  </si>
-  <si>
-    <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
-  </si>
-  <si>
-    <t>33122 Формирователь десны LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 H=3 (арт. CN-HS340) V.1</t>
-  </si>
-  <si>
-    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
-  </si>
-  <si>
-    <t>33005 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 H=5 (арт. RS3025) V.1</t>
-  </si>
-  <si>
-    <t>33032 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1</t>
-  </si>
-  <si>
-    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / УПАК</t>
+    <t>33019 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=6 (арт. AANHAF0506) V.1</t>
   </si>
   <si>
     <t>33125 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=2 (арт. CS-HS248) V.1</t>
   </si>
   <si>
-    <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
-  </si>
-  <si>
-    <t>33049уп Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1 / УПАК</t>
+    <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
   </si>
   <si>
     <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
   </si>
   <si>
-    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
-  </si>
-  <si>
-    <t>33088уп Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33030упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=7 (арт. TSHA407M) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1</t>
-  </si>
-  <si>
-    <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
+    <t>33188 Формирователь десны LM (копия оригинала) Ankylos C D=4.2 G/H=3 H=10.5 (арт. 3102 2514) V.1</t>
+  </si>
+  <si>
+    <t>33118 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 H=6 (арт. RS3026) V.1</t>
+  </si>
+  <si>
+    <t>33016 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=3 (арт. AANHAF0403) V.1</t>
+  </si>
+  <si>
+    <t>33204 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=2 (арт. HAB652020L) V.1</t>
   </si>
   <si>
     <t>33018 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=4 (арт. AANHAF0504) V.1</t>
   </si>
   <si>
-    <t>33188 Формирователь десны LM (копия оригинала) Ankylos C D=4.2 G/H=3 H=10.5 (арт. 3102 2514) V.1</t>
-  </si>
-  <si>
-    <t>33205уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=3 H=5 (арт. HAB653050L) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
   </si>
   <si>
-    <t>33192уп Формирователь десны LM (копия оригинала) Implantium D=4 G/H=4 H=7 (арт. HAB404070L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33016 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=3 (арт. AANHAF0403) V.1</t>
-  </si>
-  <si>
-    <t>33121уп Формирователь десны LM (копия оригинала) Implantium D=4 G/H=3 H=5 (арт. HAB403050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33193уп Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33235уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33101уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33056упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33118 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 H=6 (арт. RS3026) V.1</t>
-  </si>
-  <si>
-    <t>33190уп Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
-  </si>
-  <si>
-    <t>33058упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33204уп Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=2 (арт. HAB652020L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33055упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
-  </si>
-  <si>
-    <t>33119уп Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1 / УПАК</t>
+    <t>33192 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=4 H=7 (арт. HAB404070L) V.1</t>
   </si>
 </sst>
 </file>
@@ -924,7 +828,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1029,15 +933,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="20">
-        <v>3679</v>
+        <v>3269</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4">
-        <v>862</v>
+        <v>672</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="8">
-        <v>2817</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1111,7 +1015,7 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="6">
@@ -1119,7 +1023,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1353,15 +1257,13 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="6">
-        <v>70</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1371,13 +1273,13 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1387,13 +1289,13 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1403,13 +1305,13 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1483,13 +1385,13 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1499,13 +1401,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1515,13 +1417,13 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1531,13 +1433,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1547,13 +1449,13 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1563,13 +1465,13 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1579,13 +1481,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1595,13 +1497,13 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1659,13 +1561,13 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1675,13 +1577,13 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1691,13 +1593,13 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1707,15 +1609,13 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="E50" s="19"/>
-      <c r="F50" s="6">
-        <v>130</v>
-      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1725,13 +1625,13 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1741,13 +1641,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1757,13 +1657,15 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="6">
+        <v>90</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1773,13 +1675,13 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1789,13 +1691,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1805,13 +1707,13 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1821,13 +1723,13 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1837,13 +1739,13 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1901,12 +1803,10 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="6">
-        <v>90</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
         <v>10</v>
@@ -1919,13 +1819,13 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1935,13 +1835,15 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E64" s="19"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="6">
+        <v>70</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1951,13 +1853,15 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="6">
+        <v>130</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1967,13 +1871,13 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1983,13 +1887,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1999,13 +1903,15 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="6">
+        <v>174</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2015,13 +1921,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2031,13 +1937,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2047,13 +1953,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2063,13 +1969,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2079,15 +1985,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="6">
-        <v>174</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2097,13 +2001,13 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2129,13 +2033,13 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2145,13 +2049,13 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2161,13 +2065,13 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2177,13 +2081,13 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2193,13 +2097,13 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2209,13 +2113,13 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2225,13 +2129,13 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2241,13 +2145,13 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2257,13 +2161,13 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2273,13 +2177,13 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2289,13 +2193,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2305,7 +2209,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="6">
@@ -2313,7 +2217,7 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2323,13 +2227,13 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2339,13 +2243,13 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2355,13 +2259,13 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2371,13 +2275,13 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2387,13 +2291,13 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2403,13 +2307,13 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2419,13 +2323,13 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2435,13 +2339,15 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19">
+        <v>5</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="6">
         <v>4</v>
       </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2451,13 +2357,13 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2467,31 +2373,29 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A98" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="19">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E98" s="19"/>
-      <c r="F98" s="6">
-        <v>40</v>
-      </c>
+      <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2501,13 +2405,13 @@
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2517,13 +2421,13 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2533,13 +2437,15 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="6">
+        <v>4</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2549,619 +2455,37 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="19">
-        <v>152</v>
-      </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="6">
-        <v>150</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="19">
-        <v>2</v>
-      </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="19">
-        <v>2</v>
-      </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="19">
-        <v>2</v>
-      </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="19">
-        <v>2</v>
-      </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="19">
-        <v>2</v>
-      </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="19">
-        <v>2</v>
-      </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19">
-        <v>6</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="6">
-        <v>4</v>
-      </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="19">
-        <v>2</v>
-      </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="19">
-        <v>2</v>
-      </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="19">
-        <v>2</v>
-      </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="19">
-        <v>2</v>
-      </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="19">
-        <v>2</v>
-      </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="19">
-        <v>1</v>
-      </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="19">
-        <v>1</v>
-      </c>
-      <c r="E117" s="19"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19">
-        <v>1</v>
-      </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="19">
-        <v>5</v>
-      </c>
-      <c r="E119" s="19"/>
-      <c r="F119" s="6">
-        <v>4</v>
-      </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="19">
-        <v>1</v>
-      </c>
-      <c r="E120" s="19"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="19">
-        <v>1</v>
-      </c>
-      <c r="E121" s="19"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="19">
-        <v>1</v>
-      </c>
-      <c r="E122" s="19"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="19">
-        <v>1</v>
-      </c>
-      <c r="E123" s="19"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="19">
-        <v>1</v>
-      </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="19">
-        <v>1</v>
-      </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="19">
-        <v>1</v>
-      </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="19">
-        <v>1</v>
-      </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="19">
-        <v>1</v>
-      </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="19">
-        <v>1</v>
-      </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="19">
-        <v>1</v>
-      </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="19">
-        <v>1</v>
-      </c>
-      <c r="E131" s="19"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="19">
-        <v>1</v>
-      </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="19">
-        <v>1</v>
-      </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="19">
-        <v>1</v>
-      </c>
-      <c r="E134" s="19"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="21">
-        <v>3695</v>
-      </c>
-      <c r="E135" s="21"/>
-      <c r="F135" s="10">
-        <v>862</v>
-      </c>
-      <c r="G135" s="11"/>
-      <c r="H135" s="9">
-        <v>2833</v>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="21">
+        <v>3285</v>
+      </c>
+      <c r="E103" s="21"/>
+      <c r="F103" s="10">
+        <v>672</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="9">
+        <v>2613</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="265">
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="D112:E112"/>
+  <mergeCells count="201">
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:E107"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="A99:C99"/>

--- a/input_data/formers/formers_unsh.xlsx
+++ b/input_data/formers/formers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/formers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/formers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203290E1-5100-554E-A9BD-968B3E6DEFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C292A4-EB97-EC44-8E8D-66D0E5E89D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Отбор:</t>
   </si>
@@ -107,12 +107,12 @@
     <t>33045уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=3 (арт. 57811) V.1 / УПАК</t>
   </si>
   <si>
+    <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
     <t>33043уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=7 (арт. 58152) V.1 / УПАК</t>
   </si>
   <si>
-    <t>33040П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
     <t>33042уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) V.1 / УПАК</t>
   </si>
   <si>
@@ -122,226 +122,274 @@
     <t>33042П Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P</t>
   </si>
   <si>
+    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1</t>
+  </si>
+  <si>
+    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
+  </si>
+  <si>
+    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
+  </si>
+  <si>
+    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
+  </si>
+  <si>
+    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33072 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=5.5 H=6 (арт. 24579) V.1</t>
+  </si>
+  <si>
+    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33104 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=4.5 H=6 (арт. 24576) V.1</t>
+  </si>
+  <si>
+    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33093уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33089уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
+  </si>
+  <si>
+    <t>33092уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
+  </si>
+  <si>
+    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
+  </si>
+  <si>
+    <t>33032 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1</t>
+  </si>
+  <si>
+    <t>33056 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) V.1</t>
+  </si>
+  <si>
+    <t>33182 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=6 (арт. 024.4246) V.1</t>
+  </si>
+  <si>
+    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
+  </si>
+  <si>
+    <t>33091уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33084 Формирователь десны LM (копия оригинала) Ankylos C / X D=6 H=4.5 (арт. 3102 4016) V.1</t>
+  </si>
+  <si>
+    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
+  </si>
+  <si>
+    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
+  </si>
+  <si>
+    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
+  </si>
+  <si>
+    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
+  </si>
+  <si>
+    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
+  </si>
+  <si>
+    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
+  </si>
+  <si>
+    <t>33034упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
+  </si>
+  <si>
+    <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
+  </si>
+  <si>
+    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
+  </si>
+  <si>
+    <t>33192 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=4 H=7 (арт. HAB404070L) V.1</t>
+  </si>
+  <si>
+    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
+  </si>
+  <si>
+    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
+  </si>
+  <si>
+    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1</t>
+  </si>
+  <si>
+    <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
+  </si>
+  <si>
+    <t>33198 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4.5 H=4 (арт. HA4540) V.1</t>
+  </si>
+  <si>
+    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
+  </si>
+  <si>
+    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
+  </si>
+  <si>
+    <t>33083 Формирователь десны LM (копия оригинала) Ankylos C / X D=6 H=3 (арт. 3102 4014) V.1</t>
+  </si>
+  <si>
+    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33090уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=3 (арт. TSHA603R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33218 Формирователь десны LM (копия оригинала) Neodent Grand Morse D=4.5 H=4.5 (арт. 106.217) V.1</t>
+  </si>
+  <si>
+    <t>33219 Формирователь десны LM (копия оригинала) Neodent Grand Morse D=4.5 H=5.5 (арт. 106.218) V.1</t>
+  </si>
+  <si>
+    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) ПОЛИР. V.1.P</t>
+  </si>
+  <si>
+    <t>33048 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) V.2</t>
+  </si>
+  <si>
+    <t>33097уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
   </si>
   <si>
-    <t>33029упб Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33042Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33039Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=3 (арт. 57813) ПОЛИР. V.1.P / УПАК</t>
-  </si>
-  <si>
-    <t>33038Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=5 (арт. 57814) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33040Пуп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33056П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=2 (арт. HAB452020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33041уп Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33040упб Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=7 (арт. 58150) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33025 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=5 (арт. AANHAF0505) V.1</t>
-  </si>
-  <si>
-    <t>33027 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6 H=6 (арт. AANHAF0606) V.1</t>
-  </si>
-  <si>
-    <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
-  </si>
-  <si>
-    <t>33081 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1</t>
-  </si>
-  <si>
-    <t>33057П Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33080П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
-  </si>
-  <si>
-    <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
-  </si>
-  <si>
-    <t>33037Пуп Формирователь десны LM (копия оригинала) Bego Semados 5.5 D=6.5 H=7 (арт. 58153) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33021 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6 H=5 (арт. AANHAF0605) V.1</t>
-  </si>
-  <si>
-    <t>33059 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1</t>
-  </si>
-  <si>
-    <t>33041 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=5 (арт. 57808) V.1</t>
-  </si>
-  <si>
-    <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
-  </si>
-  <si>
-    <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33044 Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1</t>
-  </si>
-  <si>
-    <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
+    <t>33248 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=7 (арт. AANHAF0507) V.1</t>
+  </si>
+  <si>
+    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1</t>
+  </si>
+  <si>
+    <t>33080 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1</t>
   </si>
   <si>
     <t>33032упб Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1 / УПАК</t>
   </si>
   <si>
-    <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33089уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33051уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33119П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33081упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=3 H=5 (арт. HAB453050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33059упб Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=3 H=5 (арт. HAB553050L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33054Пуп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) ПОЛИР. V.1.P / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>33096уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33119 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=3.5 (арт. HAB552035L) V.1</t>
-  </si>
-  <si>
-    <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
-  </si>
-  <si>
-    <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
-  </si>
-  <si>
-    <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
-  </si>
-  <si>
-    <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
-  </si>
-  <si>
-    <t>33084 Формирователь десны LM (копия оригинала) Ankylos C / X D=6 H=4.5 (арт. 3102 4016) V.1</t>
-  </si>
-  <si>
-    <t>33190 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=4 H=7 (арт. HAB454070L) V.1</t>
-  </si>
-  <si>
-    <t>33101 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) V.1</t>
-  </si>
-  <si>
-    <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
-  </si>
-  <si>
-    <t>33057упб Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33080 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1</t>
-  </si>
-  <si>
-    <t>33058П Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=2 H=2 (арт. HAB552020L) ПОЛИР. V.1.P</t>
-  </si>
-  <si>
-    <t>33080упб Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=3.5 (арт. HAB402035L) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33248 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=7 (арт. AANHAF0507) V.1</t>
-  </si>
-  <si>
-    <t>33017 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=5 (арт. AANHAF0405) V.1</t>
+    <t>33194 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4 H=3 (арт. HA4030) V.1</t>
+  </si>
+  <si>
+    <t>33054уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33122 Формирователь десны LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 H=3 (арт. CN-HS340) V.1</t>
+  </si>
+  <si>
+    <t>33189 Формирователь десны LM (копия оригинала) Ankylos C D=4.2 G/H=4.5 H=12 (арт. 3102 2516) V.1</t>
+  </si>
+  <si>
+    <t>33188 Формирователь десны LM (копия оригинала) Ankylos C D=4.2 G/H=3 H=10.5 (арт. 3102 2514) V.1</t>
+  </si>
+  <si>
+    <t>33087 Формирователь десны LM (собств. разр.) Implantium D=3.35 H=5.2 V.1</t>
+  </si>
+  <si>
+    <t>33141уп Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33053уп Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33090 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=3 (арт. TSHA603R) V.1</t>
+  </si>
+  <si>
+    <t>33125 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=2 (арт. CS-HS248) V.1</t>
+  </si>
+  <si>
+    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>33035 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) V.1</t>
+  </si>
+  <si>
+    <t>33052 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=3 (арт. TSHA453R) V.1</t>
+  </si>
+  <si>
+    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
   </si>
   <si>
     <t>33205 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=3 H=5 (арт. HAB653050L) V.1</t>
   </si>
   <si>
-    <t>33026 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=6.2 H=4 (арт. AANHAF0604) V.1</t>
-  </si>
-  <si>
-    <t>33235 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=4 H=7 (арт. HAB654070L) V.1</t>
-  </si>
-  <si>
-    <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
-  </si>
-  <si>
-    <t>33048 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) V.2</t>
-  </si>
-  <si>
-    <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
-  </si>
-  <si>
-    <t>33122 Формирователь десны LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 H=3 (арт. CN-HS340) V.1</t>
-  </si>
-  <si>
-    <t>33044уп Формирователь десны LM (копия оригинала) Bego Semados 4.5 D=5.5 H=5 (арт. 57812) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33290 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.4 H=4 (арт. 024.4234S) V.1</t>
-  </si>
-  <si>
-    <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
-  </si>
-  <si>
-    <t>33176уп Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=4 (арт. 024.4224) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
-  </si>
-  <si>
-    <t>33291 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.7 H=6 (арт. 024.4236S) V.1</t>
-  </si>
-  <si>
-    <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
-  </si>
-  <si>
-    <t>33019 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=6 (арт. AANHAF0506) V.1</t>
-  </si>
-  <si>
-    <t>33125 Формирователь десны LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 H=2 (арт. CS-HS248) V.1</t>
+    <t>33018 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=4 (арт. AANHAF0504) V.1</t>
+  </si>
+  <si>
+    <t>33245 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=6.5 H=5 (арт. HA6550) V.1</t>
   </si>
   <si>
     <t>33010 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 G/H=7 H=7 (арт. 119) V.1</t>
   </si>
   <si>
+    <t>33239 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4.5 H=7 (арт. HA4570) V.1</t>
+  </si>
+  <si>
     <t>33008 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=4 (арт. 117) V.1</t>
   </si>
   <si>
-    <t>33188 Формирователь десны LM (копия оригинала) Ankylos C D=4.2 G/H=3 H=10.5 (арт. 3102 2514) V.1</t>
+    <t>33016 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=3 (арт. AANHAF0403) V.1</t>
   </si>
   <si>
     <t>33118 Формирователь десны LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 H=6 (арт. RS3026) V.1</t>
   </si>
   <si>
-    <t>33016 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=4 H=3 (арт. AANHAF0403) V.1</t>
+    <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
   </si>
   <si>
     <t>33204 Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=2 (арт. HAB652020L) V.1</t>
   </si>
   <si>
-    <t>33018 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=4 (арт. AANHAF0504) V.1</t>
-  </si>
-  <si>
-    <t>33007 Формирователь десны LM (копия оригинала) Alpha Bio Internal D=4.6 H=3 (арт. 109) V.1</t>
-  </si>
-  <si>
-    <t>33192 Формирователь десны LM (копия оригинала) Implantium D=4 G/H=4 H=7 (арт. HAB404070L) V.1</t>
+    <t>33196 Формирователь десны LM (копия оригинала) MegaGen AnyOne D=4 H=7 (арт. HA4070) V.1</t>
   </si>
 </sst>
 </file>
@@ -828,7 +876,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,13 +949,13 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -917,13 +965,13 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -933,15 +981,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="20">
-        <v>3269</v>
+        <v>3582</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4">
-        <v>672</v>
+        <v>802</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="8">
-        <v>2597</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1273,13 +1321,13 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1289,13 +1337,13 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1305,13 +1353,13 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1385,13 +1433,13 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1401,13 +1449,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1417,13 +1465,13 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1433,13 +1481,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1449,13 +1497,13 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1465,13 +1513,13 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1481,13 +1529,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1497,13 +1545,13 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1561,13 +1609,13 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1577,13 +1625,13 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1593,13 +1641,13 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1609,13 +1657,13 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1625,13 +1673,13 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1641,13 +1689,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1657,15 +1705,13 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="6">
-        <v>90</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1675,13 +1721,13 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1691,13 +1737,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1707,13 +1753,15 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E56" s="19"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="6">
+        <v>174</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1723,13 +1771,13 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1739,13 +1787,15 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E58" s="19"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="6">
+        <v>90</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1755,13 +1805,13 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1819,13 +1869,13 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1835,15 +1885,13 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E64" s="19"/>
-      <c r="F64" s="6">
-        <v>70</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1853,15 +1901,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="6">
-        <v>130</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1871,13 +1917,13 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1887,13 +1933,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1903,15 +1949,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="6">
-        <v>174</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1921,13 +1965,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1937,13 +1981,15 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="6">
+        <v>130</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1953,13 +1999,15 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E71" s="19"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="6">
+        <v>70</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1969,13 +2017,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1985,13 +2033,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2001,13 +2049,15 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="E74" s="19"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="6">
+        <v>150</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2017,13 +2067,13 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2033,13 +2083,13 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2049,13 +2099,13 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2065,13 +2115,13 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2081,13 +2131,13 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2097,13 +2147,15 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E80" s="19"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="6">
+        <v>10</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2113,13 +2165,13 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2129,13 +2181,13 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2145,13 +2197,13 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2161,13 +2213,13 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2177,13 +2229,13 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2193,13 +2245,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2209,15 +2261,13 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="E87" s="19"/>
-      <c r="F87" s="6">
-        <v>150</v>
-      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2227,13 +2277,13 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2243,13 +2293,13 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2259,13 +2309,13 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2275,13 +2325,13 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2291,13 +2341,13 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2307,13 +2357,13 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2323,13 +2373,13 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2339,15 +2389,13 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E95" s="19"/>
-      <c r="F95" s="6">
-        <v>4</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2357,13 +2405,13 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2373,13 +2421,13 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2389,29 +2437,29 @@
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A99" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2421,13 +2469,13 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2437,15 +2485,13 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="6">
-        <v>4</v>
-      </c>
+      <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2455,37 +2501,331 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="19">
+        <v>2</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="19">
+        <v>2</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="19">
+        <v>122</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="6">
+        <v>120</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="19">
+        <v>2</v>
+      </c>
+      <c r="E106" s="19"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="19">
+        <v>2</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="15" t="s">
+      <c r="E108" s="19"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="19">
+        <v>1</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19">
+        <v>1</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="19">
+        <v>1</v>
+      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="19">
+        <v>1</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="19">
+        <v>5</v>
+      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="6">
+        <v>4</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19">
+        <v>1</v>
+      </c>
+      <c r="E114" s="19"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="19">
+        <v>1</v>
+      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="19">
+        <v>5</v>
+      </c>
+      <c r="E116" s="19"/>
+      <c r="F116" s="6">
+        <v>4</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="19">
+        <v>1</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19">
+        <v>1</v>
+      </c>
+      <c r="E118" s="19"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="21">
-        <v>3285</v>
-      </c>
-      <c r="E103" s="21"/>
-      <c r="F103" s="10">
-        <v>672</v>
-      </c>
-      <c r="G103" s="11"/>
-      <c r="H103" s="9">
-        <v>2613</v>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="21">
+        <v>3606</v>
+      </c>
+      <c r="E119" s="21"/>
+      <c r="F119" s="10">
+        <v>802</v>
+      </c>
+      <c r="G119" s="11"/>
+      <c r="H119" s="9">
+        <v>2804</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="233">
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:E107"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="A99:C99"/>
